--- a/data/Rivers/WhanganuiatdsTaumarunuiSTP_261c07c945.xlsx
+++ b/data/Rivers/WhanganuiatdsTaumarunuiSTP_261c07c945.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -662,7 +662,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -792,7 +792,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -920,7 +920,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -9382,7 +9382,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -10315,7 +10315,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -11170,7 +11170,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">

--- a/data/Rivers/WhanganuiatdsTaumarunuiSTP_261c07c945.xlsx
+++ b/data/Rivers/WhanganuiatdsTaumarunuiSTP_261c07c945.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.4350</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.352</t>
+          <t>0.3525</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.319</t>
+          <t>0.3190</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.495</t>
+          <t>0.4945</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.242</t>
+          <t>0.2420</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.1275</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>0.3850</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>0.4900</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.4900</t>
+          <t>0.01900</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.01900</t>
+          <t>5.44000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6499,10 +6499,14 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H143" t="n">
         <v>600</v>
       </c>
@@ -6520,15 +6524,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>42936.37847222222</v>
+        <v>42971.38194444445</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5.44000</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6538,12 +6542,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -6551,7 +6555,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6567,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6571,7 +6575,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6579,14 +6583,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>0.01200</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6622,12 +6622,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
         <v>600</v>
       </c>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.01200</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6663,10 +6663,14 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H147" t="n">
         <v>600</v>
       </c>
@@ -6684,7 +6688,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6692,7 +6696,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>12.100</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6700,14 +6704,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>12.100</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6746,7 +6746,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>0.5280</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6782,10 +6782,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -6805,7 +6809,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6813,7 +6817,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.5280</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6848,7 +6852,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6856,7 +6860,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.5350</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6866,7 +6870,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6875,7 +6879,7 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -6891,7 +6895,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6899,7 +6903,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.535</t>
+          <t>0.6300</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6909,16 +6913,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>0.02200</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.6300</t>
+          <t>5.36000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6991,10 +6991,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H155" t="n">
         <v>600</v>
       </c>
@@ -7012,15 +7016,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>42971.38194444445</v>
+        <v>42999.34027777778</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.02200</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7030,16 +7034,20 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H156" t="n">
         <v>600</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.530</t>
         </is>
       </c>
     </row>
@@ -7051,15 +7059,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>42971.38194444445</v>
+        <v>42999.34027777778</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.36000</t>
+          <t>0.450</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7067,14 +7075,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -7082,7 +7086,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.530</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7098,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -7102,7 +7106,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7112,14 +7116,10 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
         <v>600</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7153,10 +7153,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -7176,7 +7180,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -7184,7 +7188,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.01400</t>
+          <t>11.190</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7192,12 +7196,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H160" t="n">
         <v>600</v>
       </c>
@@ -7215,7 +7219,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -7223,7 +7227,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>7.530</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7231,14 +7235,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>11.190</t>
+          <t>0.4350</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7274,10 +7274,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -7297,7 +7301,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -7305,7 +7309,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.530</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7313,10 +7317,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -7336,7 +7344,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7344,7 +7352,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0.4350</t>
+          <t>0.4450</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7354,7 +7362,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7363,7 +7371,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -7379,7 +7387,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7387,7 +7395,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.4900</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7397,14 +7405,10 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
         <v>600</v>
       </c>
@@ -7422,7 +7426,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7430,7 +7434,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.445</t>
+          <t>0.02000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7440,16 +7444,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>8.59000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7483,10 +7483,14 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H167" t="n">
         <v>600</v>
       </c>
@@ -7504,15 +7508,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>42999.34027777778</v>
+        <v>43027.30555555555</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.4900</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7522,16 +7526,20 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H168" t="n">
         <v>600</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>7.530</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -7543,15 +7551,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>42999.34027777778</v>
+        <v>43027.30555555555</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.02000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7559,18 +7567,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H169" t="n">
         <v>600</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>7.530</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -7582,15 +7590,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>42999.34027777778</v>
+        <v>43027.30555555555</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>8.59000</t>
+          <t>0.009000</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7600,20 +7608,16 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
         <v>600</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>7.530</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -7625,7 +7629,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7633,7 +7637,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7643,12 +7647,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -7668,7 +7672,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7676,7 +7680,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>10.980</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7687,7 +7691,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -7707,7 +7711,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7715,7 +7719,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0.009000</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7723,12 +7727,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H173" t="n">
         <v>600</v>
       </c>
@@ -7746,7 +7750,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7754,7 +7758,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0.3160</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7764,12 +7768,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -7789,7 +7793,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7797,7 +7801,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>10.980</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7805,10 +7809,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -7828,7 +7836,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7836,7 +7844,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>0.3250</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7844,14 +7852,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -7867,7 +7879,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7875,7 +7887,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0.3160</t>
+          <t>0.4000</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7885,14 +7897,10 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
         <v>600</v>
       </c>
@@ -7910,7 +7918,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7918,7 +7926,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7928,14 +7936,10 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
         <v>600</v>
       </c>
@@ -7953,7 +7957,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7961,7 +7965,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>2.98000</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7971,16 +7975,16 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -7996,15 +8000,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>43027.30555555555</v>
+        <v>43062.32986111111</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8014,16 +8018,20 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H180" t="n">
         <v>600</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.770</t>
         </is>
       </c>
     </row>
@@ -8035,15 +8043,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>43027.30555555555</v>
+        <v>43062.32986111111</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0.4000</t>
+          <t>1.800</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8051,18 +8059,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H181" t="n">
         <v>600</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.770</t>
         </is>
       </c>
     </row>
@@ -8074,15 +8082,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>43027.30555555555</v>
+        <v>43062.32986111111</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>0.008000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8092,7 +8100,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -8101,7 +8109,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.770</t>
         </is>
       </c>
     </row>
@@ -8113,15 +8121,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
-        <v>43027.30555555555</v>
+        <v>43062.32986111111</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.98000</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8131,12 +8139,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -8144,7 +8152,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.770</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8164,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -8164,7 +8172,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>9.960</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8172,11 +8180,7 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
-        </is>
-      </c>
+      <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
           <t>g/m3</t>
@@ -8199,7 +8203,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -8207,7 +8211,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1.800</t>
+          <t>7.770</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8218,7 +8222,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -8238,7 +8242,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -8246,7 +8250,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.008000</t>
+          <t>0.1560</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8256,10 +8260,14 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H186" t="n">
         <v>600</v>
       </c>
@@ -8277,7 +8285,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -8285,7 +8293,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8295,12 +8303,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -8320,7 +8328,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -8328,7 +8336,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>9.960</t>
+          <t>0.1650</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8336,14 +8344,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -8359,7 +8371,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -8367,7 +8379,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>7.770</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8375,12 +8387,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
         <v>600</v>
       </c>
@@ -8398,7 +8410,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8406,7 +8418,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.1560</t>
+          <t>0.01200</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8416,14 +8428,10 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
         <v>600</v>
       </c>
@@ -8441,7 +8449,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8449,7 +8457,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>2.24000</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8459,12 +8467,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -8484,15 +8492,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>43062.32986111111</v>
+        <v>43088.30555555555</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8502,20 +8510,20 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>7.770</t>
+          <t>7.720</t>
         </is>
       </c>
     </row>
@@ -8527,11 +8535,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
-        <v>43062.32986111111</v>
+        <v>43088.30555555555</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -8543,18 +8551,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H193" t="n">
         <v>600</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>7.770</t>
+          <t>7.720</t>
         </is>
       </c>
     </row>
@@ -8566,15 +8574,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>43062.32986111111</v>
+        <v>43088.30555555555</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.2300</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8584,7 +8592,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -8593,7 +8601,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>7.770</t>
+          <t>7.720</t>
         </is>
       </c>
     </row>
@@ -8605,15 +8613,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
-        <v>43062.32986111111</v>
+        <v>43088.30555555555</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0.01200</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8623,16 +8631,20 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H195" t="n">
         <v>600</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>7.770</t>
+          <t>7.720</t>
         </is>
       </c>
     </row>
@@ -8644,15 +8656,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
-        <v>43062.32986111111</v>
+        <v>43088.30555555555</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2.24000</t>
+          <t>9.310</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8660,14 +8672,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -8675,7 +8683,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>7.770</t>
+          <t>7.720</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8695,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8695,7 +8703,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>7.720</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8703,14 +8711,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
-        </is>
-      </c>
+      <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -8730,7 +8734,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8738,7 +8742,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8746,10 +8750,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -8769,7 +8777,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8777,7 +8785,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.01400</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8787,10 +8795,14 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H199" t="n">
         <v>600</v>
       </c>
@@ -8808,7 +8820,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8816,7 +8828,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8826,16 +8838,16 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -8851,7 +8863,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8859,7 +8871,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>9.310</t>
+          <t>0.1700</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8867,12 +8879,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
         <v>600</v>
       </c>
@@ -8890,7 +8902,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8898,7 +8910,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>0.02300</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8906,12 +8918,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
         <v>600</v>
       </c>
@@ -8929,7 +8941,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8937,7 +8949,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>2.29000</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8947,12 +8959,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -8972,15 +8984,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>43088.30555555555</v>
+        <v>43125.3125</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8990,12 +9002,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -9003,7 +9015,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>7.650</t>
         </is>
       </c>
     </row>
@@ -9015,15 +9027,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
-        <v>43088.30555555555</v>
+        <v>43125.3125</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>1.800</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9031,22 +9043,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>7.650</t>
         </is>
       </c>
     </row>
@@ -9058,15 +9066,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
-        <v>43088.30555555555</v>
+        <v>43125.3125</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>9.000</t>
+          <t>0.01700</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9076,7 +9084,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -9085,7 +9093,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>7.650</t>
         </is>
       </c>
     </row>
@@ -9097,15 +9105,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
-        <v>43088.30555555555</v>
+        <v>43125.3125</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.1700</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9115,16 +9123,20 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H207" t="n">
         <v>600</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>7.650</t>
         </is>
       </c>
     </row>
@@ -9136,15 +9148,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
-        <v>43088.30555555555</v>
+        <v>43125.3125</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.02300</t>
+          <t>8.700</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9152,18 +9164,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H208" t="n">
         <v>600</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>7.650</t>
         </is>
       </c>
     </row>
@@ -9175,15 +9187,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
-        <v>43088.30555555555</v>
+        <v>43125.3125</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2.29000</t>
+          <t>7.650</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9191,14 +9203,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -9206,7 +9214,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>7.720</t>
+          <t>7.650</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9226,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -9226,7 +9234,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9236,12 +9244,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H210" t="n">
@@ -9261,7 +9269,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -9269,7 +9277,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1.800</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9277,10 +9285,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -9300,7 +9312,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -9308,7 +9320,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.01700</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9318,12 +9330,16 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H212" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
@@ -9339,7 +9355,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -9347,7 +9363,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9357,14 +9373,10 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
       <c r="H213" t="n">
         <v>600</v>
       </c>
@@ -9382,7 +9394,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -9390,7 +9402,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>8.700</t>
+          <t>0.02000</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9398,12 +9410,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
         <v>600</v>
       </c>
@@ -9421,7 +9433,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -9429,7 +9441,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>2.11000</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9437,10 +9449,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -9460,15 +9476,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9476,14 +9492,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H216" t="n">
@@ -9491,7 +9503,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9503,15 +9515,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.01100</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9521,20 +9533,16 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
         <v>600</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9546,15 +9554,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>9.350</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9562,22 +9570,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9589,15 +9593,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>7.740</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9605,18 +9609,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H219" t="n">
         <v>600</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9628,15 +9632,15 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0.2000</t>
+          <t>0.1080</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9646,16 +9650,20 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H220" t="n">
         <v>600</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9667,15 +9675,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.02000</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9685,16 +9693,20 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H221" t="n">
         <v>600</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9706,15 +9718,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
-        <v>43125.3125</v>
+        <v>43153.29513888889</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2.11000</t>
+          <t>0.1150</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9724,20 +9736,20 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>7.650</t>
+          <t>7.740</t>
         </is>
       </c>
     </row>
@@ -9749,7 +9761,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9757,7 +9769,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>0.2600</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9765,12 +9777,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
         <v>600</v>
       </c>
@@ -9788,7 +9800,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9796,7 +9808,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.01100</t>
+          <t>0.02100</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9806,7 +9818,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -9827,7 +9839,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9835,7 +9847,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>9.350</t>
+          <t>2.28000</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9843,10 +9855,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -9866,15 +9882,15 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9882,10 +9898,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -9893,7 +9913,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -9905,15 +9925,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.1080</t>
+          <t>1.800</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9921,14 +9941,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -9936,7 +9952,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -9948,15 +9964,15 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.01100</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9966,20 +9982,16 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
       <c r="H228" t="n">
         <v>600</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -9991,15 +10003,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>230</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10009,20 +10021,20 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -10034,15 +10046,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>4.000</t>
+          <t>9.610</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10050,18 +10062,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H230" t="n">
         <v>600</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -10073,15 +10085,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0.2600</t>
+          <t>7.830</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10089,18 +10101,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H231" t="n">
         <v>600</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -10112,15 +10124,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0.02100</t>
+          <t>0.0790</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10130,16 +10142,20 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H232" t="n">
         <v>600</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -10151,15 +10167,15 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
-        <v>43153.29513888889</v>
+        <v>43181.30555555555</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2.28000</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10169,12 +10185,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -10182,7 +10198,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.830</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10210,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -10202,7 +10218,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>0.0850</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10212,16 +10228,16 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -10237,7 +10253,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -10245,7 +10261,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1.800</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10253,12 +10269,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
       <c r="H235" t="n">
         <v>600</v>
       </c>
@@ -10276,7 +10292,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -10284,7 +10300,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.01100</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10294,7 +10310,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -10315,7 +10331,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -10323,7 +10339,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0.95000</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10333,12 +10349,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -10358,15 +10374,15 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>9.610</t>
+          <t>0.400</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10377,7 +10393,7 @@
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -10385,7 +10401,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10397,15 +10413,15 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>0.01000</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10413,18 +10429,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
       <c r="H239" t="n">
         <v>600</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10436,15 +10452,15 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>230</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10454,12 +10470,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -10467,7 +10483,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10479,15 +10495,15 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>10.770</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10495,14 +10511,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H241" t="n">
@@ -10510,7 +10522,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10522,15 +10534,15 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>7.620</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10538,22 +10550,18 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10565,15 +10573,15 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>0.1910</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10583,16 +10591,20 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H243" t="n">
         <v>600</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10604,15 +10616,15 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0.2000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10622,16 +10634,20 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H244" t="n">
         <v>600</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10643,15 +10659,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0.01400</t>
+          <t>0.1950</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10661,16 +10677,20 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H245" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10682,15 +10702,15 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
-        <v>43181.30555555555</v>
+        <v>43209.37916666667</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0.95000</t>
+          <t>0.3600</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10700,20 +10720,16 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
       <c r="H246" t="n">
         <v>600</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10741,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10733,7 +10749,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0.400</t>
+          <t>0.03000</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10741,12 +10757,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
         <v>600</v>
       </c>
@@ -10764,7 +10780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10772,7 +10788,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.01000</t>
+          <t>11.30000</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10782,10 +10798,14 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H248" t="n">
         <v>600</v>
       </c>
@@ -10803,15 +10823,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>&lt;0.100</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10819,14 +10839,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H249" t="n">
@@ -10846,15 +10862,15 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>10.770</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10862,12 +10878,12 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
       <c r="H250" t="n">
         <v>600</v>
       </c>
@@ -10885,15 +10901,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>7.620</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10901,10 +10917,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H251" t="n">
@@ -10924,15 +10944,15 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0.1910</t>
+          <t>11.110</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10940,14 +10960,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -10967,15 +10983,15 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>7.620</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10983,14 +10999,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H253" t="n">
@@ -11010,15 +11022,15 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0.195</t>
+          <t>0.4280</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11028,7 +11040,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -11037,7 +11049,7 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -11053,15 +11065,15 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11071,10 +11083,14 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H255" t="n">
         <v>600</v>
       </c>
@@ -11092,15 +11108,15 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>0.3600</t>
+          <t>0.4400</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11110,12 +11126,16 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H256" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
@@ -11131,15 +11151,15 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0.03000</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11149,7 +11169,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -11170,15 +11190,15 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
-        <v>43209.37916666667</v>
+        <v>43244.36458333334</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>11.30000</t>
+          <t>0.08100</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11188,14 +11208,10 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
       <c r="H258" t="n">
         <v>600</v>
       </c>
@@ -11213,7 +11229,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -11221,7 +11237,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>&lt;0.100</t>
+          <t>31.30000</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11229,465 +11245,20 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H259" t="n">
         <v>600</v>
       </c>
       <c r="I259" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Dissolved Reactive Phosphorus</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>0.01400</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="n">
-        <v>600</v>
-      </c>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>E. coli</t>
-        </is>
-      </c>
-      <c r="C261" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
-      <c r="H261" t="n">
-        <v>600</v>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Dissolved Oxygen Concentration</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>11.110</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-      <c r="H262" t="n">
-        <v>600</v>
-      </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="C263" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="H263" t="n">
-        <v>600</v>
-      </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Nitrate Nitrogen (NO3)</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>0.4280</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
-      <c r="H264" t="n">
-        <v>600</v>
-      </c>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Nitrite Nitrogen (NO2)</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>&lt;0.002</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
-      <c r="H265" t="n">
-        <v>600</v>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>0.440</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
-      <c r="H266" t="n">
-        <v>300</v>
-      </c>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Suspended Sediment Concentration</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="n">
-        <v>600</v>
-      </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Total Nitrogen</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>0.6800</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="n">
-        <v>600</v>
-      </c>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>0.08100</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="n">
-        <v>600</v>
-      </c>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>7.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Whanganui at d/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="n">
-        <v>43244.36458333334</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>31.30000</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
-      <c r="H270" t="n">
-        <v>600</v>
-      </c>
-      <c r="I270" t="inlineStr">
         <is>
           <t>7.620</t>
         </is>
